--- a/biology/Biologie cellulaire et moléculaire/Agglutination_(biologie)/Agglutination_(biologie).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Agglutination_(biologie)/Agglutination_(biologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agglutination est l'agrégation, c'est-à-dire la réunion en amas, de particules support d'un antigène sous l'action d'anticorps spécifiques. Ces particules (érythrocytes, germes, particules de latex...), portant l'antigène, se réunissent sous l'action de l'anticorps en amas visibles à l'œil nu.
 C'est un mécanisme d'agglutination, l'hémagglutination, qui a permis de découvrir les groupes sanguins. En présence d'un anticorps ou d'une lectine, les érythrocytes au lieu de rester séparés dans le plasma sanguin, s'agrègent les uns aux autres et forment des agglutinats visibles à l'œil nu. C'est la technique de base de l'immuno-hématologie, pour la détermination des groupes sanguins et la recherche des anticorps irréguliers.
